--- a/assets/format_data_guru.xlsx
+++ b/assets/format_data_guru.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5b5e5968ba41335/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\absensi_sekolah\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{DF4C92A6-A589-4EDE-BD89-B529ECC33179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA69EEF1-7DD0-434D-938B-303D9D200777}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7DE558-01BE-458C-8002-0CE6F0D91BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{B37E9E71-DBD6-4565-B902-9011B4B20F74}"/>
+    <workbookView xWindow="372" yWindow="372" windowWidth="23016" windowHeight="12360" xr2:uid="{B37E9E71-DBD6-4565-B902-9011B4B20F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,63 +35,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
-  <si>
-    <t>Laki-Laki</t>
-  </si>
-  <si>
-    <t>$2y$10$x7xWgiXMLwF/Rq4oH6Lpz.Jt1jzM5a.q8jUamJ.K4qbyXkgtdoELi</t>
-  </si>
-  <si>
-    <t>guru</t>
-  </si>
-  <si>
-    <t>nama_guru</t>
-  </si>
-  <si>
-    <t>nip</t>
-  </si>
-  <si>
-    <t>jenis_kelamin</t>
-  </si>
-  <si>
-    <t>tanggal_lahir</t>
-  </si>
-  <si>
-    <t>alamat</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>mjl</t>
-  </si>
-  <si>
-    <t>Guru_A</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Guru_B</t>
-  </si>
-  <si>
-    <t>Guru_C</t>
-  </si>
-  <si>
-    <t>Guru_D</t>
-  </si>
-  <si>
-    <t>Guru_E</t>
-  </si>
-  <si>
-    <t>Guru_F</t>
-  </si>
-  <si>
-    <t>Guru_G</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>NIP</t>
+  </si>
+  <si>
+    <t>Nama Guru</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Budi Santoso</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>Jl. Merdeka No. 10, Jakarta</t>
   </si>
 </sst>
 </file>
@@ -151,6 +118,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -167,10 +202,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="C0C0C0"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="191919"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -459,214 +494,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF389A-954C-45E9-BA8E-71FED8F92499}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12345678901</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="2">
+        <v>29356</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>12345678</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>37147</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>12345678</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>37148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>12345679</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>37149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>12345680</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>37150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>12345681</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>37151</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>12345682</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>37152</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>12345683</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>37153</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="2"/>
     </row>

--- a/assets/format_data_guru.xlsx
+++ b/assets/format_data_guru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\absensi_sekolah\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7DE558-01BE-458C-8002-0CE6F0D91BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56759E8-98BA-460F-890A-A3341EFEC299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="372" windowWidth="23016" windowHeight="12360" xr2:uid="{B37E9E71-DBD6-4565-B902-9011B4B20F74}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12360" xr2:uid="{B37E9E71-DBD6-4565-B902-9011B4B20F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NIP</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Jl. Merdeka No. 10, Jakarta</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -108,84 +111,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -202,10 +139,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="C0C0C0"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="191919"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -494,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF389A-954C-45E9-BA8E-71FED8F92499}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,10 +444,10 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +463,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12345678901</v>
       </c>
@@ -543,40 +483,43 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <v>628514569875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="2"/>
     </row>
